--- a/0_DOC/Plasma_Gen_Q&A_list_20171127.xlsx
+++ b/0_DOC/Plasma_Gen_Q&A_list_20171127.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Q&amp;A" sheetId="1" r:id="rId1"/>
+    <sheet name="1월12일 meeting" sheetId="4" r:id="rId1"/>
+    <sheet name="Plasma_Gen" sheetId="1" r:id="rId2"/>
+    <sheet name="Plasma_LF" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Q&amp;A'!$A$1:$H$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Plasma_Gen!$A$1:$H$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Plasma_LF!$A$1:$H$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -35,7 +38,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Function</t>
+    <t>Question</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -43,108 +58,221 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Question</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Answer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery 사용시간
-  - 대기시간
-  - 사용시간
-  - 사용 Max current</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function Q&amp;A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCD 사용시 지원가능한 MCU 선택 및 S/W 복잡도 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 정보가 있어야 PCB layout 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spec에 따라 battery size 변경 가능 - 기구에서 조립성 검토 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery Spec 수정 가능함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface 용도 확인 필요 - S/W에서 지원해야 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기구 design에 의존하며, 기구 data에서 LED 위치 알려줘야 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기구 design에 의존하며, 기구 data에서 Key 위치 알려줘야 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED 출력 수량 및 종류 확인 필요
- - 전원 : On/Off 상태
- - Battery 상태
- - Mode 상태 : Tack S/W or volume S/W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요한 Key input 기능 list
- - 전원 Key
- - Mode Key
- - 출력 control Key : up / Down Key or volume S/W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display 유무 및 방법 문의
-  - LCD or 7segment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원해야하는 외부 interface
- - RS-232 지원을 위한 D-sub Connector 사용시 PCB size가 커짐
- - PCB 배치를 위한 위치 정보 확인을 위한 2D data 필요함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전용 커넥터 타입 - USB?
- - PCB 배치를 위한 위치 정보 확인을 위한 2D data 필요함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 기구물 형태
- - PCB외곽 size 및 조립용 Hole 위치 확인을 위한 2D(CAD) data 필요
- - Key 및 LED의 위치 및 높이 확인을 위한 2D(CAD) data 필요
- - Battery, Transformer 조립 방법을 확인하기 위한 3D 형상 자료 필요 : Battery와 Transformer 연결을 위한 Connector 위치 확인용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plasma Power
- - Power에 따라 battery 용량 결정 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case 두께 정보 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5mm 이하 기준으로 부품 검토중이며, 두께가 증가하면 Plasma Pulse control를 위한 Volume(Potentiometer)가 변경되어야 함</t>
+    <t>Volume 및 Key(전원, Plasma, Reset) 위치 정보 - 2D CAD data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED(전원, Plasma) 위치 정보 - 2D CAD data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top / Bottom 부품 높이 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connector(USB, RS232, Battery, Transformer) 위치 정보 - 2D CAD data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma Generator V2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma LF MCU Board V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB 외곽 모양 및 조립용 Hole 위치 및 size 정보 - 2D CAD data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schematic V2.0으로 진행시 M/E part 반영 가능 여부
+ - Volume / Power key / Plasma key / Reset key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E 구조에 따른 V2.0 수정 요청 사항 여부
+ - PCB size 및 외곽 모양
+ - 부품 높이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery 형상 및 CON type 협의
+ - Battery size : L x W x H
+ - Battery 용량 : size에 맞춰 결정해야 함
+ - Battery current : 1A 이상
+ - 사용품 사용시 사용품에 맞춰 CON 결정해야 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS-232 CON type 변경 여부
+ - D-Sub 9-pin : PCB size가 커짐
+ - USB Data line : RS-232 통신용 젠더 제작이 필요함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Femto Science에서 전달 예정
+"Plasma_Gen" sheet에 list-up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Femto Science에서 사용품 사용 여부 판단
+"Plasma_Gen" sheet에 list-up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery 상용품 사용 여부 판단
+ - 사용품 사용시 : CON 정보 필요
+ - 사용품 미사용시 : Battery 제작업체에 PCB에서 사용하는 CON 정보 전달 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/12 meeting 협의 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Plasma Generator V2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS-232 통신용 CON type 결정 필요
+ - Case 1 : 기존 USB CON를 이용하여 전원 공급 및 RS-232 통신 지원
+ - Case 2 : RS-232 통신용 소형 CON 사용, USB는 External 전원 공급용으로 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양산시 필요한 기능
+ - H/W version 관리
+ - D/L나 board test를 위한 Test Pin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 협으 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Battery type 과 External Power Only type 2개 model로 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. F/W : 하나의 version으로 진행하며, H/W ID로 구별함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Gas 주입 인식을 위한 GPIO 신호 추가 - 외부에서 입력됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model 구별을 위한 ID Pin 추가
+나머지 항목은 "Plasma_Gen" sheet에 list-up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양산시 필요한 기능 - D/L나 board test를 위한 Test Pin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양산시 필요한 기능 - H/W version 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model 구별을 위한 ID pin 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery 사용 model과 External Power model 구별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">생산라인에서 F/W download와 Board test를 위해 필요한 Pin들에 대한 정보가 필요함. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS-232 Control를 위한 Command list 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS-232 Control를 위한 Command list 필요
+ R/Tx data에 필요한 정보 list table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas 주입 인식을 위한 신호 추가 - 2개의 wire 필요
+ - GPIO 신호 type : 
+       Gas Off : Open
+       Gas On : GND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB에서 GND와 GPIO Pull-up line이 외부 Gas 주입 장비와 연결이 되어야 하며, 두 선이 Gas 주입 전에는 Open 상태를 유지하다 Gas 주입시 연결(Short)되어야 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMI나 control program과 통신을 위한 S/W interface 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Plasma LF V1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU PCB 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 자료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - RS-232 통신 : R/Tx data 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ADC : 기능 및 data 처리 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - G17 : 기능 및 처리 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS-232 통신 : R/Tx data 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB에서 받은 ADC에 대한 기능 설명 및 ADC value에 따른 data 처리 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB에서 G17(OP-AMP 출력)의 기능 및 처리 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB P3, P4 CON에 연결되는 ADC와 GPIO 구현 여부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -427,11 +555,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -443,9 +623,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -506,6 +683,31 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,10 +1014,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="29"/>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="29"/>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,436 +1175,842 @@
     <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="58" style="1" customWidth="1"/>
+    <col min="6" max="6" width="75.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" style="1" customWidth="1"/>
-    <col min="8" max="8" width="47.25" style="21" customWidth="1"/>
+    <col min="8" max="8" width="57.125" style="20" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
-        <v>9</v>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>43063</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>43112</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43112</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43112</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C7" s="6">
+        <v>43112</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="C8" s="6">
+        <v>43112</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43112</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43112</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43112</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43112</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43112</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
+        <v>43114</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="23" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>26</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="75.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.25" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43112</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43114</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43114</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43114</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>43063</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
         <v>23</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>43063</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7">
-        <v>43063</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
         <v>24</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7">
-        <v>43063</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7">
-        <v>43066</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7">
-        <v>43066</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7">
-        <v>43066</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7">
-        <v>43070</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
         <v>25</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
         <v>26</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="24" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="6">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="6">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="6">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="6">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
-        <v>25</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
-        <v>26</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
-        <v>27</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="24"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>28</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="25"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/0_DOC/Plasma_Gen_Q&A_list_20171127.xlsx
+++ b/0_DOC/Plasma_Gen_Q&A_list_20171127.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="1월12일 meeting" sheetId="4" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Plasma_Gen!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Plasma_LF!$A$1:$H$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -273,6 +273,17 @@
   </si>
   <si>
     <t>Main PCB P3, P4 CON에 연결되는 ADC와 GPIO 구현 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Power model에서 불필요한 기능 확인
+ - 전원 Key, Plasma Key, Volume Key
+ - Buzzer
+ - 충전 IC, Battery, Battery CON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery model에서 RS-232 통신 지원 여부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -692,6 +703,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,12 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,7 +781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,7 +816,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1016,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1052,7 @@
       <c r="B4" s="27"/>
     </row>
     <row r="5" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1052,7 +1063,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="29"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1061,7 +1072,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="29"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1081,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1081,11 +1092,11 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="31"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1305,7 +1316,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -1429,14 +1440,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="6">
+        <v>43114</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="23"/>
     </row>
@@ -1444,10 +1463,18 @@
       <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="6">
+        <v>43114</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="23"/>
     </row>
@@ -1627,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/0_DOC/Plasma_Gen_Q&A_list_20171127.xlsx
+++ b/0_DOC/Plasma_Gen_Q&A_list_20171127.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1월12일 meeting" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -284,6 +284,11 @@
   </si>
   <si>
     <t>Battery model에서 RS-232 통신 지원 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J9의 Pin-23,Pin-27에 연결된 Pull-up 저항의 역할 확인 필요함
+ LF main board에서 4.7K Pull-up 저항과 연결이되며, 이 두개의 Pin으로 확인을 하는 사항이 무엇인지 확인 필요함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -816,7 +821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1027,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1177,7 +1182,7 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1654,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1775,14 +1780,16 @@
       <c r="G7" s="17"/>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="23"/>
     </row>
